--- a/database/tb_ahli.xlsx
+++ b/database/tb_ahli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,23 +436,96 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>kode_ahli</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Harga</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Kecepatan</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Kestabilan</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Pelayanan</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/database/tb_ahli.xlsx
+++ b/database/tb_ahli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,69 +463,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/database/tb_ahli.xlsx
+++ b/database/tb_ahli.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/database/tb_ahli.xlsx
+++ b/database/tb_ahli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,22 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Harga</t>
+          <t>Kecepatan</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Kecepatan</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>Kestabilan</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Pelayanan</t>
         </is>
       </c>
     </row>
@@ -467,16 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
         <v>8</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
         <v>9</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/database/tb_ahli.xlsx
+++ b/database/tb_ahli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,16 @@
           <t>Kestabilan</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Harga</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pelayanan</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,6 +472,12 @@
       <c r="C2" t="n">
         <v>8</v>
       </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -475,6 +491,12 @@
       <c r="C3" t="n">
         <v>9</v>
       </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -487,6 +509,12 @@
       </c>
       <c r="C4" t="n">
         <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database/tb_ahli.xlsx
+++ b/database/tb_ahli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/tb_ahli.xlsx
+++ b/database/tb_ahli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Kecepatan</t>
+          <t>Kestabilan</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Kestabilan</t>
+          <t>Harga</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Harga</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Pelayanan</t>
         </is>
@@ -467,16 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -508,12 +497,9 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,15 +510,12 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="C5" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -543,15 +526,12 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
-      </c>
-      <c r="E6" t="n">
         <v>10</v>
       </c>
     </row>

--- a/database/tb_ahli.xlsx
+++ b/database/tb_ahli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,80 +458,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
         <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
         <v>9</v>
       </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
       <c r="D3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
         <v>10</v>
       </c>
     </row>

--- a/database/tb_ahli.xlsx
+++ b/database/tb_ahli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Kestabilan</t>
+          <t>Kecepatan Sinyal</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,40 +451,70 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Pelayanan</t>
+          <t>Kestabilan Sinyal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pelayanan Operator</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
